--- a/grocerie.xlsx
+++ b/grocerie.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -297,9 +297,6 @@
     <t>Hygiènes</t>
   </si>
   <si>
-    <t>Champoings</t>
-  </si>
-  <si>
     <t>savon</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
     <t xml:space="preserve">souk </t>
   </si>
   <si>
-    <t>sous</t>
-  </si>
-  <si>
     <t>Observation</t>
   </si>
   <si>
@@ -424,6 +418,12 @@
   </si>
   <si>
     <t>cacahuète</t>
+  </si>
+  <si>
+    <t>shampooing</t>
+  </si>
+  <si>
+    <t>sous catégorie</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +521,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,644 +808,757 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>76</v>
+      <c r="B14" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
       <c r="C42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="C44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
       <c r="C45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
       <c r="C46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="8"/>
       <c r="C53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="8"/>
       <c r="C54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="8"/>
       <c r="C57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="C59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="8"/>
       <c r="C60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="8"/>
       <c r="C61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="8"/>
       <c r="C62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="8"/>
       <c r="C63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="8"/>
       <c r="C66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="8"/>
       <c r="C67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="8"/>
       <c r="C68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="8"/>
       <c r="C71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="8"/>
       <c r="C75" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="8"/>
       <c r="C76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="8"/>
       <c r="C77" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="C78" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="8"/>
       <c r="C79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="8"/>
       <c r="C81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="C82" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="8"/>
       <c r="C83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="8"/>
       <c r="C84" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="8"/>
       <c r="C85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="C86" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="8"/>
       <c r="C91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="C93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="C100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="8"/>
+      <c r="C101" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="8"/>
+      <c r="C102" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="8"/>
+      <c r="C103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="8"/>
+      <c r="C104" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="8"/>
+      <c r="C105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="8"/>
+      <c r="C106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="8"/>
+      <c r="C107" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="8"/>
+      <c r="C108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="8"/>
+      <c r="C109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="8"/>
+      <c r="C110" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="8"/>
+      <c r="C111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="8"/>
+      <c r="C112" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="8"/>
+      <c r="C113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="8"/>
+      <c r="C114" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B14:B31"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B100:B114"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="B59:B69"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="B41:B43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1452,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,144 +1581,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>117</v>
+      <c r="H1" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
+      <c r="B16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1621,15 +1736,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>Feuil1!$C$4:$C$134</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>Feuil1!$B$4:$B$120</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Feuil1!$C$4:$C$134</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
